--- a/covid-percent2dublingtime.xlsx
+++ b/covid-percent2dublingtime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torben/Hacken/GitHub/COVID-19-Coronavirus-German-Regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C292F4C-8608-4E16-9DA3-D96A99BF95EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FA9C6B-1720-0B48-A85D-1A6862A2A47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10040" yWindow="510" windowWidth="15660" windowHeight="16220" xr2:uid="{6E14BCD6-23A6-4D6A-A56C-75C99EB4F8F5}"/>
+    <workbookView xWindow="9940" yWindow="460" windowWidth="15660" windowHeight="15540" xr2:uid="{6E14BCD6-23A6-4D6A-A56C-75C99EB4F8F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
-  <si>
-    <t>proz</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>I-7</t>
   </si>
@@ -70,6 +58,12 @@
   </si>
   <si>
     <t>calc Doubling Time T_D from percent</t>
+  </si>
+  <si>
+    <t>T_D (I)</t>
+  </si>
+  <si>
+    <t>T_D (percent)</t>
   </si>
 </sst>
 </file>
@@ -77,7 +71,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -135,14 +129,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -454,99 +448,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E0F7F7-5295-441D-9754-20778865CFCB}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="108" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="4">
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <f>(B2-B3)/B3</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="4">
         <f>B3</f>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <f>B8*B7+B7</f>
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>50</v>
       </c>
@@ -554,15 +553,19 @@
         <v>0.25</v>
       </c>
       <c r="C14">
-        <f>B14*A14+A14</f>
+        <f t="shared" ref="C14:C19" si="0">B14*A14+A14</f>
         <v>62.5</v>
       </c>
       <c r="D14" s="3">
-        <f>-7/LOG(A14/C14,2)</f>
+        <f t="shared" ref="D14:E19" si="1">-7/LOG(A14/C14,2)</f>
         <v>21.743986036537734</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14" s="3">
+        <f>-7/LOG(1/(1+B14),2)</f>
+        <v>21.743986036537734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>$A$14</f>
         <v>50</v>
@@ -571,15 +574,19 @@
         <v>0.5</v>
       </c>
       <c r="C15">
-        <f>B15*A15+A15</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="D15" s="3">
-        <f>-7/LOG(A15/C15,2)</f>
+        <f t="shared" si="1"/>
         <v>11.96657903946018</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15" s="3">
+        <f t="shared" ref="E15:E19" si="2">-7/LOG(1/(1+B15),2)</f>
+        <v>11.96657903946018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <f>$A$14</f>
         <v>50</v>
@@ -588,15 +595,19 @@
         <v>0.75</v>
       </c>
       <c r="C16">
-        <f>B16*A16+A16</f>
+        <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
       <c r="D16" s="3">
-        <f>-7/LOG(A16/C16,2)</f>
+        <f t="shared" si="1"/>
         <v>8.6702883809266655</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16" s="3">
+        <f t="shared" si="2"/>
+        <v>8.6702883809266655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <f>$A$14</f>
         <v>50</v>
@@ -605,15 +616,19 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <f>B17*A17+A17</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D17" s="3">
-        <f>-7/LOG(A17/C17,2)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17" s="3">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>$A$14</f>
         <v>50</v>
@@ -622,15 +637,19 @@
         <v>1.5</v>
       </c>
       <c r="C18">
-        <f>B18*A18+A18</f>
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
       <c r="D18" s="3">
-        <f>-7/LOG(A18/C18,2)</f>
+        <f t="shared" si="1"/>
         <v>5.2952955815622111</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18" s="3">
+        <f t="shared" si="2"/>
+        <v>5.2952955815622111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>$A$14</f>
         <v>50</v>
@@ -639,34 +658,38 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <f>B19*A19+A19</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="D19" s="3">
-        <f>-7/LOG(A19/C19,2)</f>
+        <f t="shared" si="1"/>
         <v>4.4165082750002016</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="3">
+        <f t="shared" si="2"/>
+        <v>4.4165082750002016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>100</v>
       </c>
@@ -682,7 +705,7 @@
         <v>1.6390158215457882</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <f>$A$23</f>
         <v>100</v>
@@ -699,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <f>$A$23</f>
         <v>100</v>
@@ -716,7 +739,7 @@
         <v>0.41421356237309526</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <f>$A$23</f>
         <v>100</v>
@@ -733,7 +756,7 @@
         <v>0.25992104989487325</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <f>$A$23</f>
         <v>100</v>
@@ -750,20 +773,20 @@
         <v>0.18920711500272094</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>0.19</v>
       </c>
@@ -771,7 +794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>0.25</v>
       </c>
@@ -779,7 +802,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>0.26</v>
       </c>
@@ -787,7 +810,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>0.41</v>
       </c>
@@ -795,7 +818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>0.5</v>
       </c>
@@ -803,7 +826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>0.75</v>
       </c>
@@ -811,7 +834,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -819,7 +842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>1.64</v>
       </c>
@@ -827,7 +850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1.5</v>
       </c>
@@ -835,7 +858,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2</v>
       </c>
